--- a/eibe_cs_sku.xlsx
+++ b/eibe_cs_sku.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\CS_UBASE_project\2025-12-04_1차구축자료\eibe_cs_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C057C8-0C94-45FC-B961-8F4D22C881AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A3C80-4279-44A1-80E2-05F545269965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="3930" windowWidth="14010" windowHeight="8775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">(본품) X1 slim </t>
-  </si>
-  <si>
     <t>(본품) X1 air</t>
   </si>
   <si>
@@ -465,6 +462,9 @@
   <si>
     <t>(토퍼) 레이레이 침대 패드</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(본품) X1 slim</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -905,7 +907,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>54</v>
@@ -914,99 +916,99 @@
         <v>53</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -1018,48 +1020,48 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>66</v>
@@ -1069,7 +1071,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>67</v>
@@ -1079,7 +1081,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>68</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>69</v>
@@ -1099,7 +1101,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>70</v>
@@ -1109,7 +1111,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>71</v>

--- a/eibe_cs_sku.xlsx
+++ b/eibe_cs_sku.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\CS_UBASE_project\2025-12-04_1차구축자료\eibe_cs_mockup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\eibe_cs_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83A3C80-4279-44A1-80E2-05F545269965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8395A0-26BD-49D7-9DFC-4645FB634FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,157 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
-  <si>
-    <t>Heat/L20 사이드 브러쉬</t>
-  </si>
-  <si>
-    <t>X40 Ultra 3중컷 브러쉬</t>
-  </si>
-  <si>
-    <t>X40 Ultra 악세사리 키트</t>
-  </si>
-  <si>
-    <t>X40/L10s 히트 필터</t>
-  </si>
-  <si>
-    <t>Heat/L20 메인 브러쉬 커버</t>
-  </si>
-  <si>
-    <t>X40/Heat/L20/L10s Ultra 메인 브러쉬</t>
-  </si>
-  <si>
-    <t>Matrix/X50s/X50 필터</t>
-  </si>
-  <si>
-    <t>X50s/X50 메인 브러쉬 (듀오 브러쉬)</t>
-  </si>
-  <si>
-    <t>X50 Ultra 물얼룩 방지필터</t>
-  </si>
-  <si>
-    <t>X50 Ultra/X50 Master 브러쉬 커버</t>
-  </si>
-  <si>
-    <t>X50 Ultra 악세사리 키트</t>
-  </si>
-  <si>
-    <t>X50/X40 사이드 로봇 브러쉬</t>
-  </si>
-  <si>
-    <t>X50/X40/Heat/L20/L10s 먼지봉투</t>
-  </si>
-  <si>
-    <t>X50/X40/Heat/L20/L10/L10s 물걸레 패드</t>
-  </si>
-  <si>
-    <t>X50s 보온 물걸레 패드</t>
-  </si>
-  <si>
-    <t>드리미 경사로</t>
-  </si>
-  <si>
-    <t>Heat/X40/X50/X50s 직배수 키트</t>
-  </si>
-  <si>
-    <t>X50s/X50/X40/Heat/W10 Pro 바닥 클리너</t>
-  </si>
-  <si>
-    <t>리보 활성탄 필터</t>
-  </si>
-  <si>
-    <t>W10 Pro 필터</t>
-  </si>
-  <si>
-    <t>W10 Pro 메인 브러쉬</t>
-  </si>
-  <si>
-    <t>W10 Pro 메인 브러쉬 (커버)</t>
-  </si>
-  <si>
-    <t>W10 Pro 물걸레 패드 (전용)</t>
-  </si>
-  <si>
-    <t>W10 Pro 방습 패드</t>
-  </si>
-  <si>
-    <t>W10 Pro 사이드 브러쉬</t>
-  </si>
-  <si>
-    <t>W10 Pro 악세사리 키트</t>
-  </si>
-  <si>
-    <t>청소솔</t>
-  </si>
-  <si>
-    <t>L10s Ultra 필터</t>
-  </si>
-  <si>
-    <t>L10s Ultra 메인 브러쉬 (커버)</t>
-  </si>
-  <si>
-    <t>L10s Ultra 바닥 클리너 3개입</t>
-  </si>
-  <si>
-    <t>L10s Ultra 사이드 브러쉬</t>
-  </si>
-  <si>
-    <t>L10s Ultra 악세사리 키트</t>
-  </si>
-  <si>
-    <t>L10 Prime 악세사리 키트</t>
-  </si>
-  <si>
-    <t>L20 Ultra 필터</t>
-  </si>
-  <si>
-    <t>L20 Ultra 바닥 클리너</t>
-  </si>
-  <si>
-    <t>L20 Ultra 악세사리 키트</t>
-  </si>
-  <si>
-    <t>L20 Ultra 직배수 키트</t>
-  </si>
-  <si>
-    <t>L10s Pro Ultra Heat 악세사리 키트</t>
-  </si>
-  <si>
-    <t>Aqua10 Ultra 악세사리 키트</t>
-  </si>
-  <si>
-    <t>Aqua10 Ultra 직배수 키트</t>
-  </si>
-  <si>
-    <t>Aqua10 Ultra 필터</t>
-  </si>
-  <si>
-    <t>Aqua10 Ultra 브러쉬 커버</t>
-  </si>
-  <si>
-    <t>Aqua10 Ultra 롤러형 물걸레</t>
-  </si>
-  <si>
-    <t>Matrix10 Ultra 악세사리 키트</t>
-  </si>
-  <si>
-    <t>Matrix10 Ultra 직배수 키트</t>
-  </si>
-  <si>
-    <t>기름때 전용 물걸레 패드</t>
-  </si>
-  <si>
-    <t>흡수형 물걸레 패드</t>
-  </si>
-  <si>
-    <t>리보 건조통</t>
-  </si>
-  <si>
-    <t>H12 필터</t>
-  </si>
-  <si>
-    <t>반려동물 전용 바닥 클리너</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t xml:space="preserve">dreame </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +315,30 @@
   </si>
   <si>
     <t>(본품) X1 slim</t>
+  </si>
+  <si>
+    <t>직배수 키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액세서리 키트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 브러쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 브러쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물걸레 패드/롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 소모품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,7 +753,7 @@
   <dimension ref="B2:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -893,680 +767,592 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>

--- a/eibe_cs_sku.xlsx
+++ b/eibe_cs_sku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\eibe_cs_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8395A0-26BD-49D7-9DFC-4645FB634FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74180E1-FC69-4AB9-A381-754D450780AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포티밀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포티멜 프로틴 바닐라향</t>
   </si>
   <si>
@@ -338,6 +334,10 @@
   </si>
   <si>
     <t>기타 소모품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포티멜 프로틴 바닐라향</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,282 +773,282 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1056,7 +1056,7 @@
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1064,7 +1064,7 @@
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1072,7 +1072,7 @@
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1080,7 +1080,7 @@
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1088,7 +1088,7 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1096,7 +1096,7 @@
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1104,7 +1104,7 @@
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1112,7 +1112,7 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1120,7 +1120,7 @@
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1128,7 +1128,7 @@
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1136,7 +1136,7 @@
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1144,7 +1144,7 @@
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1152,7 +1152,7 @@
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1160,7 +1160,7 @@
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1168,7 +1168,7 @@
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -1176,7 +1176,7 @@
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1184,7 +1184,7 @@
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1192,7 +1192,7 @@
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1200,7 +1200,7 @@
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -1208,7 +1208,7 @@
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>

--- a/eibe_cs_sku.xlsx
+++ b/eibe_cs_sku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\eibe_cs_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74180E1-FC69-4AB9-A381-754D450780AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326BAB64-DCF0-4486-8BD6-F3FFD5A607A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">dreame </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,30 +168,6 @@
   </si>
   <si>
     <t>(직구) Comfort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(직구) 3PF 1+IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(직구) 3PF 2+FO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(직구) 3PN2+FO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(직구) 3PN PRE +IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(직구) 3PF PRE +IF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(직구) 3PN1+IF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,7 +729,7 @@
   <dimension ref="B2:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -773,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>26</v>
@@ -781,7 +757,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
@@ -790,152 +766,152 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -945,7 +921,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>16</v>
@@ -955,7 +931,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -965,7 +941,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>18</v>
@@ -975,7 +951,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>19</v>
@@ -985,7 +961,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>20</v>
@@ -995,7 +971,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>21</v>
@@ -1005,7 +981,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>22</v>
@@ -1015,7 +991,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>23</v>
@@ -1025,7 +1001,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>24</v>
@@ -1035,7 +1011,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>25</v>
@@ -1045,7 +1021,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>27</v>
@@ -1167,49 +1143,37 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
-      <c r="C41" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
-      <c r="C43" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
-      <c r="C45" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
-      <c r="C46" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
